--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.1_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1764789212357702</v>
+        <v>0.1479767852798715</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.383349315480437</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.37253972536332813, 'ngram_match_score': 0.17647892123577016, 'weighted_ngram_match_score': 0.2348921014296638, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.34285714285714286}</t>
+          <t>{'codebleu': 0.383349315480437, 'ngram_match_score': 0.14797678527987151, 'weighted_ngram_match_score': 0.1923468835682834, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.45714285714285713}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9243029822767175</v>
+        <v>0.9380770128604092</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
